--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3081586666666666</v>
+        <v>0.7303676666666666</v>
       </c>
       <c r="H2">
-        <v>0.924476</v>
+        <v>2.191103</v>
       </c>
       <c r="I2">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668853</v>
       </c>
       <c r="J2">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668851</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>2.505710227794666</v>
+        <v>2.771885769047889</v>
       </c>
       <c r="R2">
-        <v>22.551392050152</v>
+        <v>24.946971921431</v>
       </c>
       <c r="S2">
-        <v>0.008059228326019477</v>
+        <v>0.005134238384207158</v>
       </c>
       <c r="T2">
-        <v>0.008059228326019479</v>
+        <v>0.005134238384207158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3081586666666666</v>
+        <v>0.7303676666666666</v>
       </c>
       <c r="H3">
-        <v>0.924476</v>
+        <v>2.191103</v>
       </c>
       <c r="I3">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668853</v>
       </c>
       <c r="J3">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>74.9985465112551</v>
+        <v>177.7542524159098</v>
       </c>
       <c r="R3">
-        <v>674.986918601296</v>
+        <v>1599.788271743188</v>
       </c>
       <c r="S3">
-        <v>0.2412211929971526</v>
+        <v>0.3292461456747877</v>
       </c>
       <c r="T3">
-        <v>0.2412211929971527</v>
+        <v>0.3292461456747875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3081586666666666</v>
+        <v>0.7303676666666666</v>
       </c>
       <c r="H4">
-        <v>0.924476</v>
+        <v>2.191103</v>
       </c>
       <c r="I4">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668853</v>
       </c>
       <c r="J4">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>10.29827723622755</v>
+        <v>21.76595780073767</v>
       </c>
       <c r="R4">
-        <v>92.68449512604799</v>
+        <v>195.893620206639</v>
       </c>
       <c r="S4">
-        <v>0.03312281152495975</v>
+        <v>0.04031609717018243</v>
       </c>
       <c r="T4">
-        <v>0.03312281152495975</v>
+        <v>0.04031609717018241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3081586666666666</v>
+        <v>0.7303676666666666</v>
       </c>
       <c r="H5">
-        <v>0.924476</v>
+        <v>2.191103</v>
       </c>
       <c r="I5">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668853</v>
       </c>
       <c r="J5">
-        <v>0.3854254131392412</v>
+        <v>0.4916846149668851</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>32.03082483861555</v>
+        <v>63.15985328077044</v>
       </c>
       <c r="R5">
-        <v>288.27742354754</v>
+        <v>568.438679526934</v>
       </c>
       <c r="S5">
-        <v>0.1030221802911093</v>
+        <v>0.116988133737708</v>
       </c>
       <c r="T5">
-        <v>0.1030221802911093</v>
+        <v>0.116988133737708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2633103333333334</v>
+        <v>0.2633103333333333</v>
       </c>
       <c r="H6">
-        <v>0.789931</v>
+        <v>0.7899309999999999</v>
       </c>
       <c r="I6">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="J6">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>2.141037934951334</v>
+        <v>0.9993133583541112</v>
       </c>
       <c r="R6">
-        <v>19.269341414562</v>
+        <v>8.993820225187001</v>
       </c>
       <c r="S6">
-        <v>0.006886316454727753</v>
+        <v>0.001850982843378493</v>
       </c>
       <c r="T6">
-        <v>0.006886316454727753</v>
+        <v>0.001850982843378492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2633103333333334</v>
+        <v>0.2633103333333333</v>
       </c>
       <c r="H7">
-        <v>0.789931</v>
+        <v>0.7899309999999999</v>
       </c>
       <c r="I7">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="J7">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>64.08352065838623</v>
+        <v>64.08352065838622</v>
       </c>
       <c r="R7">
         <v>576.7516859254761</v>
       </c>
       <c r="S7">
-        <v>0.2061147052010369</v>
+        <v>0.1186990009593482</v>
       </c>
       <c r="T7">
-        <v>0.2061147052010369</v>
+        <v>0.1186990009593482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2633103333333334</v>
+        <v>0.2633103333333333</v>
       </c>
       <c r="H8">
-        <v>0.789931</v>
+        <v>0.7899309999999999</v>
       </c>
       <c r="I8">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="J8">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>8.799502026543111</v>
+        <v>7.847008931800333</v>
       </c>
       <c r="R8">
-        <v>79.195518238888</v>
+        <v>70.62308038620299</v>
       </c>
       <c r="S8">
-        <v>0.02830223351468614</v>
+        <v>0.01453465900678306</v>
       </c>
       <c r="T8">
-        <v>0.02830223351468614</v>
+        <v>0.01453465900678305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2633103333333334</v>
+        <v>0.2633103333333333</v>
       </c>
       <c r="H9">
-        <v>0.789931</v>
+        <v>0.7899309999999999</v>
       </c>
       <c r="I9">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="J9">
-        <v>0.3293319480727396</v>
+        <v>0.1772609136062552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>27.36917074709611</v>
+        <v>22.77023310265755</v>
       </c>
       <c r="R9">
-        <v>246.322536723865</v>
+        <v>204.932097923918</v>
       </c>
       <c r="S9">
-        <v>0.08802869290228875</v>
+        <v>0.04217627079674549</v>
       </c>
       <c r="T9">
-        <v>0.08802869290228875</v>
+        <v>0.04217627079674548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1933086666666667</v>
+        <v>0.331774</v>
       </c>
       <c r="H10">
-        <v>0.5799260000000001</v>
+        <v>0.995322</v>
       </c>
       <c r="I10">
-        <v>0.2417782810372445</v>
+        <v>0.223350757284377</v>
       </c>
       <c r="J10">
-        <v>0.2417782810372445</v>
+        <v>0.2233507572843769</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>1.571838002894667</v>
+        <v>1.259146141199334</v>
       </c>
       <c r="R10">
-        <v>14.146542026052</v>
+        <v>11.332315270794</v>
       </c>
       <c r="S10">
-        <v>0.005055573153002536</v>
+        <v>0.002332259331051913</v>
       </c>
       <c r="T10">
-        <v>0.005055573153002536</v>
+        <v>0.002332259331051912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1933086666666667</v>
+        <v>0.331774</v>
       </c>
       <c r="H11">
-        <v>0.5799260000000001</v>
+        <v>0.995322</v>
       </c>
       <c r="I11">
-        <v>0.2417782810372445</v>
+        <v>0.223350757284377</v>
       </c>
       <c r="J11">
-        <v>0.2417782810372445</v>
+        <v>0.2233507572843769</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>47.04676712438845</v>
+        <v>80.74596129123468</v>
       </c>
       <c r="R11">
-        <v>423.420904119496</v>
+        <v>726.7136516211121</v>
       </c>
       <c r="S11">
-        <v>0.1513186297643928</v>
+        <v>0.1495620845780965</v>
       </c>
       <c r="T11">
-        <v>0.1513186297643928</v>
+        <v>0.1495620845780965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1933086666666667</v>
+        <v>0.331774</v>
       </c>
       <c r="H12">
-        <v>0.5799260000000001</v>
+        <v>0.995322</v>
       </c>
       <c r="I12">
-        <v>0.2417782810372445</v>
+        <v>0.223350757284377</v>
       </c>
       <c r="J12">
-        <v>0.2417782810372445</v>
+        <v>0.2233507572843769</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>6.460133875294222</v>
+        <v>9.887320062154</v>
       </c>
       <c r="R12">
-        <v>58.14120487764801</v>
+        <v>88.985880559386</v>
       </c>
       <c r="S12">
-        <v>0.02077801867914777</v>
+        <v>0.01831383484373867</v>
       </c>
       <c r="T12">
-        <v>0.02077801867914777</v>
+        <v>0.01831383484373866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1933086666666667</v>
+        <v>0.331774</v>
       </c>
       <c r="H13">
-        <v>0.5799260000000001</v>
+        <v>0.995322</v>
       </c>
       <c r="I13">
-        <v>0.2417782810372445</v>
+        <v>0.223350757284377</v>
       </c>
       <c r="J13">
-        <v>0.2417782810372445</v>
+        <v>0.2233507572843769</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>20.09301282603222</v>
+        <v>28.69075141019067</v>
       </c>
       <c r="R13">
-        <v>180.83711543429</v>
+        <v>258.216762691716</v>
       </c>
       <c r="S13">
-        <v>0.06462605944070141</v>
+        <v>0.05314257853148986</v>
       </c>
       <c r="T13">
-        <v>0.06462605944070141</v>
+        <v>0.05314257853148985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.034751</v>
+        <v>0.1599873333333333</v>
       </c>
       <c r="H14">
-        <v>0.104253</v>
+        <v>0.4799620000000001</v>
       </c>
       <c r="I14">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="J14">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>0.282568512734</v>
+        <v>0.6071827008971112</v>
       </c>
       <c r="R14">
-        <v>2.543116614605999</v>
+        <v>5.464644308074002</v>
       </c>
       <c r="S14">
-        <v>0.0009088377964084612</v>
+        <v>0.001124656998489271</v>
       </c>
       <c r="T14">
-        <v>0.0009088377964084612</v>
+        <v>0.001124656998489271</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.034751</v>
+        <v>0.1599873333333333</v>
       </c>
       <c r="H15">
-        <v>0.104253</v>
+        <v>0.4799620000000001</v>
       </c>
       <c r="I15">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="J15">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>8.457573230065332</v>
+        <v>38.93714101895023</v>
       </c>
       <c r="R15">
-        <v>76.11815907058799</v>
+        <v>350.4342691705521</v>
       </c>
       <c r="S15">
-        <v>0.02720247257206477</v>
+        <v>0.07212150162286413</v>
       </c>
       <c r="T15">
-        <v>0.02720247257206477</v>
+        <v>0.07212150162286411</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.034751</v>
+        <v>0.1599873333333333</v>
       </c>
       <c r="H16">
-        <v>0.104253</v>
+        <v>0.4799620000000001</v>
       </c>
       <c r="I16">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="J16">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>1.161334958082666</v>
+        <v>4.767841875967333</v>
       </c>
       <c r="R16">
-        <v>10.452014622744</v>
+        <v>42.910576883706</v>
       </c>
       <c r="S16">
-        <v>0.003735253776097626</v>
+        <v>0.00883125742148822</v>
       </c>
       <c r="T16">
-        <v>0.003735253776097626</v>
+        <v>0.008831257421488216</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.034751</v>
+        <v>0.1599873333333333</v>
       </c>
       <c r="H17">
-        <v>0.104253</v>
+        <v>0.4799620000000001</v>
       </c>
       <c r="I17">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="J17">
-        <v>0.04346435775077483</v>
+        <v>0.1077037141424827</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>3.612110624721666</v>
+        <v>13.83519145395956</v>
       </c>
       <c r="R17">
-        <v>32.50899562249499</v>
+        <v>124.516723085636</v>
       </c>
       <c r="S17">
-        <v>0.01161779360620397</v>
+        <v>0.02562629809964105</v>
       </c>
       <c r="T17">
-        <v>0.01161779360620397</v>
+        <v>0.02562629809964105</v>
       </c>
     </row>
   </sheetData>
